--- a/stock_predictor_ai/data/cleaned/META.xlsx
+++ b/stock_predictor_ai/data/cleaned/META.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3298"/>
+  <dimension ref="A1:F3299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66409,6 +66409,26 @@
         <v>2727874</v>
       </c>
     </row>
+    <row r="3299">
+      <c r="A3299" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3299" t="n">
+        <v>731.2590942382812</v>
+      </c>
+      <c r="C3299" t="n">
+        <v>731.3400268554688</v>
+      </c>
+      <c r="D3299" t="n">
+        <v>722.7150268554688</v>
+      </c>
+      <c r="E3299" t="n">
+        <v>722.7150268554688</v>
+      </c>
+      <c r="F3299" t="n">
+        <v>1776971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/META.xlsx
+++ b/stock_predictor_ai/data/cleaned/META.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3299"/>
+  <dimension ref="A1:F3300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66429,6 +66429,26 @@
         <v>1776971</v>
       </c>
     </row>
+    <row r="3300">
+      <c r="A3300" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3300" t="n">
+        <v>710.3900146484375</v>
+      </c>
+      <c r="C3300" t="n">
+        <v>724.469970703125</v>
+      </c>
+      <c r="D3300" t="n">
+        <v>709.8200073242188</v>
+      </c>
+      <c r="E3300" t="n">
+        <v>723.9000244140625</v>
+      </c>
+      <c r="F3300" t="n">
+        <v>11505600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/META.xlsx
+++ b/stock_predictor_ai/data/cleaned/META.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3300"/>
+  <dimension ref="A1:F3301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66449,6 +66449,26 @@
         <v>11505600</v>
       </c>
     </row>
+    <row r="3301">
+      <c r="A3301" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3301" t="n">
+        <v>715.5399780273438</v>
+      </c>
+      <c r="C3301" t="n">
+        <v>717</v>
+      </c>
+      <c r="D3301" t="n">
+        <v>705.760009765625</v>
+      </c>
+      <c r="E3301" t="n">
+        <v>706.6199951171875</v>
+      </c>
+      <c r="F3301" t="n">
+        <v>2646484</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/META.xlsx
+++ b/stock_predictor_ai/data/cleaned/META.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3301"/>
+  <dimension ref="A1:F3302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66469,6 +66469,26 @@
         <v>2646484</v>
       </c>
     </row>
+    <row r="3302">
+      <c r="A3302" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3302" t="n">
+        <v>733.844970703125</v>
+      </c>
+      <c r="C3302" t="n">
+        <v>734.8400268554688</v>
+      </c>
+      <c r="D3302" t="n">
+        <v>721.7305908203125</v>
+      </c>
+      <c r="E3302" t="n">
+        <v>726</v>
+      </c>
+      <c r="F3302" t="n">
+        <v>5802815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/META.xlsx
+++ b/stock_predictor_ai/data/cleaned/META.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3302"/>
+  <dimension ref="A1:F3297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66389,106 +66391,6 @@
         <v>18761600</v>
       </c>
     </row>
-    <row r="3298">
-      <c r="A3298" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B3298" t="n">
-        <v>721.0599975585938</v>
-      </c>
-      <c r="C3298" t="n">
-        <v>729</v>
-      </c>
-      <c r="D3298" t="n">
-        <v>719.8499755859375</v>
-      </c>
-      <c r="E3298" t="n">
-        <v>726.698974609375</v>
-      </c>
-      <c r="F3298" t="n">
-        <v>2727874</v>
-      </c>
-    </row>
-    <row r="3299">
-      <c r="A3299" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B3299" t="n">
-        <v>731.2590942382812</v>
-      </c>
-      <c r="C3299" t="n">
-        <v>731.3400268554688</v>
-      </c>
-      <c r="D3299" t="n">
-        <v>722.7150268554688</v>
-      </c>
-      <c r="E3299" t="n">
-        <v>722.7150268554688</v>
-      </c>
-      <c r="F3299" t="n">
-        <v>1776971</v>
-      </c>
-    </row>
-    <row r="3300">
-      <c r="A3300" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B3300" t="n">
-        <v>710.3900146484375</v>
-      </c>
-      <c r="C3300" t="n">
-        <v>724.469970703125</v>
-      </c>
-      <c r="D3300" t="n">
-        <v>709.8200073242188</v>
-      </c>
-      <c r="E3300" t="n">
-        <v>723.9000244140625</v>
-      </c>
-      <c r="F3300" t="n">
-        <v>11505600</v>
-      </c>
-    </row>
-    <row r="3301">
-      <c r="A3301" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B3301" t="n">
-        <v>715.5399780273438</v>
-      </c>
-      <c r="C3301" t="n">
-        <v>717</v>
-      </c>
-      <c r="D3301" t="n">
-        <v>705.760009765625</v>
-      </c>
-      <c r="E3301" t="n">
-        <v>706.6199951171875</v>
-      </c>
-      <c r="F3301" t="n">
-        <v>2646484</v>
-      </c>
-    </row>
-    <row r="3302">
-      <c r="A3302" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B3302" t="n">
-        <v>733.844970703125</v>
-      </c>
-      <c r="C3302" t="n">
-        <v>734.8400268554688</v>
-      </c>
-      <c r="D3302" t="n">
-        <v>721.7305908203125</v>
-      </c>
-      <c r="E3302" t="n">
-        <v>726</v>
-      </c>
-      <c r="F3302" t="n">
-        <v>5802815</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
